--- a/hardware/PowerBoard_RevB/Document/Connector Bus Signals.xlsx
+++ b/hardware/PowerBoard_RevB/Document/Connector Bus Signals.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -76,9 +76,6 @@
     <t>PC15</t>
   </si>
   <si>
-    <t>PB4</t>
-  </si>
-  <si>
     <t>I2C1_SCL</t>
   </si>
   <si>
@@ -125,26 +122,119 @@
     <t>GPIO</t>
   </si>
   <si>
-    <t>Bus 1 Signals</t>
-  </si>
-  <si>
-    <t>PA9</t>
-  </si>
-  <si>
-    <t>PA10</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>VSUP</t>
   </si>
+  <si>
+    <r>
+      <t>PB5 | I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SMBA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PA9 | USART</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PA10 | USART</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RX</t>
+    </r>
+  </si>
+  <si>
+    <t>Power Supply Board Rev B - Bus 1 Signals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -245,11 +335,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -279,11 +424,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="736">
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -296,162 +462,418 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -467,56 +889,6789 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="3" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -620,6 +7775,11 @@
       <color rgb="FF93B78B"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -698,6 +7858,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -732,6 +7893,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -907,32 +8069,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E34"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -945,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -959,9 +8121,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -970,10 +8132,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -987,7 +8149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1001,31 +8163,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="C7" s="4">
         <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4">
         <v>11</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>13</v>
@@ -1033,172 +8200,194 @@
       <c r="D9" s="4">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" s="4">
         <v>15</v>
       </c>
       <c r="D10" s="4">
         <v>16</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9"/>
+      <c r="E10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="4">
         <v>17</v>
       </c>
       <c r="D11" s="4">
         <v>18</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="4">
         <v>19</v>
       </c>
       <c r="D12" s="4">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="E12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" s="4">
         <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>22</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="F13" s="10"/>
+      <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="4">
         <v>23</v>
       </c>
       <c r="D14" s="4">
         <v>24</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>10</v>
+      <c r="E14" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="10"/>
+      <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="4">
         <v>25</v>
       </c>
       <c r="D15" s="4">
         <v>26</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9"/>
+      <c r="E15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1">
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="4">
         <v>27</v>
       </c>
       <c r="D16" s="4">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="2:17" ht="15" customHeight="1">
-      <c r="B17" s="4"/>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4">
         <v>29</v>
       </c>
       <c r="D17" s="4">
         <v>30</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="E17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4">
         <v>31</v>
       </c>
       <c r="D18" s="4">
         <v>32</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="4"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4">
         <v>33</v>
       </c>
       <c r="D19" s="4">
         <v>34</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="4"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="4">
         <v>35</v>
       </c>
       <c r="D20" s="4">
         <v>36</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="4"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4">
         <v>37</v>
       </c>
       <c r="D21" s="4">
         <v>38</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4">
         <v>39</v>
@@ -1206,11 +8395,10 @@
       <c r="D22" s="4">
         <v>40</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4">
         <v>41</v>
@@ -1218,9 +8406,11 @@
       <c r="D23" s="4">
         <v>42</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4">
         <v>43</v>
@@ -1228,9 +8418,11 @@
       <c r="D24" s="4">
         <v>44</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4">
         <v>45</v>
@@ -1238,9 +8430,11 @@
       <c r="D25" s="4">
         <v>46</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4">
         <v>47</v>
@@ -1248,9 +8442,11 @@
       <c r="D26" s="4">
         <v>48</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4">
         <v>49</v>
@@ -1258,9 +8454,11 @@
       <c r="D27" s="4">
         <v>50</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4">
         <v>51</v>
@@ -1270,7 +8468,7 @@
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4">
         <v>53</v>
@@ -1280,7 +8478,7 @@
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
@@ -1294,7 +8492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4">
         <v>57</v>
@@ -1304,7 +8502,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1318,10 +8516,10 @@
         <v>7</v>
       </c>
       <c r="Q32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +8533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
@@ -1351,64 +8549,700 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F17:F21"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B8 A12:B13 A15:A33 B30:B34 B8:B28 E30:E34 F11:F12 F16:F17 C1:D34 E1:E28 F1:F9 F22:F33">
-    <cfRule type="containsText" dxfId="31" priority="184" operator="containsText" text="GPIO">
+  <conditionalFormatting sqref="A1:B7 B30:B34 E30:E34 C1:D34 F1:F8 F27:F33 E26:E28 E18 E1:E10 A22:A33 B22:B28 B16 B7:B10">
+    <cfRule type="containsText" dxfId="400" priority="440" operator="containsText" text="GPIO">
       <formula>NOT(ISERROR(SEARCH("GPIO",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="186" operator="beginsWith" text="PC">
+    <cfRule type="beginsWith" dxfId="399" priority="442" operator="beginsWith" text="PC">
       <formula>LEFT(A1,2)="PC"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="29" priority="187" operator="beginsWith" text="PB">
+    <cfRule type="beginsWith" dxfId="398" priority="443" operator="beginsWith" text="PB">
       <formula>LEFT(A1,2)="PB"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="188" operator="beginsWith" text="PA">
+    <cfRule type="beginsWith" dxfId="397" priority="444" operator="beginsWith" text="PA">
       <formula>LEFT(A1,2)="PA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="190" operator="containsText" text="I2C">
+    <cfRule type="containsText" dxfId="396" priority="446" operator="containsText" text="I2C">
       <formula>NOT(ISERROR(SEARCH("I2C",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="191" operator="containsText" text="SPI">
+    <cfRule type="containsText" dxfId="395" priority="447" operator="containsText" text="SPI">
       <formula>NOT(ISERROR(SEARCH("SPI",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="192" operator="containsText" text="DXVY">
+    <cfRule type="containsText" dxfId="394" priority="448" operator="containsText" text="DXVY">
       <formula>NOT(ISERROR(SEARCH("DXVY",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="193" operator="containsText" text="D1V5">
+    <cfRule type="containsText" dxfId="393" priority="449" operator="containsText" text="D1V5">
       <formula>NOT(ISERROR(SEARCH("D1V5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="194" operator="containsText" text="D3V3">
+    <cfRule type="containsText" dxfId="392" priority="450" operator="containsText" text="D3V3">
       <formula>NOT(ISERROR(SEARCH("D3V3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="195" operator="containsText" text="VSUP">
+    <cfRule type="containsText" dxfId="391" priority="451" operator="containsText" text="VSUP">
       <formula>NOT(ISERROR(SEARCH("VSUP",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="196" operator="containsText" text="DGND">
+    <cfRule type="containsText" dxfId="390" priority="452" operator="containsText" text="DGND">
       <formula>NOT(ISERROR(SEARCH("DGND",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="197" operator="containsText" text="A1V5">
+    <cfRule type="containsText" dxfId="389" priority="453" operator="containsText" text="A1V5">
       <formula>NOT(ISERROR(SEARCH("A1V5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="198" operator="containsText" text="A3V3">
+    <cfRule type="containsText" dxfId="388" priority="454" operator="containsText" text="A3V3">
       <formula>NOT(ISERROR(SEARCH("A3V3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="200" operator="containsText" text="AGND">
+    <cfRule type="containsText" dxfId="387" priority="456" operator="containsText" text="AGND">
       <formula>NOT(ISERROR(SEARCH("AGND",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="containsText" dxfId="18" priority="199" operator="containsText" text="A1V5">
+    <cfRule type="containsText" dxfId="386" priority="455" operator="containsText" text="A1V5">
       <formula>NOT(ISERROR(SEARCH("A1V5",P23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B34 E3:E34">
-    <cfRule type="containsBlanks" dxfId="17" priority="202">
+  <conditionalFormatting sqref="E26:E34 E18 E3:E10 B22:B34 B16 B3:B10">
+    <cfRule type="containsBlanks" dxfId="385" priority="458">
       <formula>LEN(TRIM(B3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="384" priority="243" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",F18)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="383" priority="244" operator="beginsWith" text="PC">
+      <formula>LEFT(F18,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="382" priority="245" operator="beginsWith" text="PB">
+      <formula>LEFT(F18,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="381" priority="246" operator="beginsWith" text="PA">
+      <formula>LEFT(F18,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="380" priority="247" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="379" priority="248" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="378" priority="249" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="377" priority="250" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="376" priority="251" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="375" priority="252" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="374" priority="253" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="373" priority="254" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="372" priority="255" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="371" priority="256" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="356" priority="215" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",F9)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="355" priority="216" operator="beginsWith" text="PC">
+      <formula>LEFT(F9,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="354" priority="217" operator="beginsWith" text="PB">
+      <formula>LEFT(F9,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="353" priority="218" operator="beginsWith" text="PA">
+      <formula>LEFT(F9,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="352" priority="219" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="351" priority="220" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="350" priority="221" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="222" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="223" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="347" priority="224" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="225" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="226" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="344" priority="227" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="343" priority="228" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",F9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E25">
+    <cfRule type="containsText" dxfId="272" priority="158" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",E19)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="271" priority="159" operator="beginsWith" text="PC">
+      <formula>LEFT(E19,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="270" priority="160" operator="beginsWith" text="PB">
+      <formula>LEFT(E19,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="269" priority="161" operator="beginsWith" text="PA">
+      <formula>LEFT(E19,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="162" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="267" priority="163" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="266" priority="164" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="165" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="166" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="263" priority="167" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="168" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="169" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="260" priority="170" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="259" priority="171" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",E19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E25">
+    <cfRule type="containsBlanks" dxfId="258" priority="172">
+      <formula>LEN(TRIM(E19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="257" priority="144" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",F19)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="256" priority="145" operator="beginsWith" text="PC">
+      <formula>LEFT(F19,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="255" priority="146" operator="beginsWith" text="PB">
+      <formula>LEFT(F19,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="254" priority="147" operator="beginsWith" text="PA">
+      <formula>LEFT(F19,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="148" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="149" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="251" priority="150" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="151" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="249" priority="152" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="248" priority="153" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="247" priority="154" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="155" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="245" priority="156" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="157" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="243" priority="130" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",F23)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="242" priority="131" operator="beginsWith" text="PC">
+      <formula>LEFT(F23,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="241" priority="132" operator="beginsWith" text="PB">
+      <formula>LEFT(F23,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="240" priority="133" operator="beginsWith" text="PA">
+      <formula>LEFT(F23,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="239" priority="134" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="135" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="136" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="236" priority="137" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="138" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="139" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="233" priority="140" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="141" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="231" priority="142" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="143" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E17">
+    <cfRule type="containsText" dxfId="229" priority="115" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",E11)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="228" priority="116" operator="beginsWith" text="PC">
+      <formula>LEFT(E11,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="227" priority="117" operator="beginsWith" text="PB">
+      <formula>LEFT(E11,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="226" priority="118" operator="beginsWith" text="PA">
+      <formula>LEFT(E11,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="119" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="224" priority="120" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="121" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="122" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="221" priority="123" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="220" priority="124" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="125" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="218" priority="126" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="127" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="128" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E17">
+    <cfRule type="containsBlanks" dxfId="215" priority="129">
+      <formula>LEN(TRIM(E11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="214" priority="101" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",F11)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="213" priority="102" operator="beginsWith" text="PC">
+      <formula>LEFT(F11,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="212" priority="103" operator="beginsWith" text="PB">
+      <formula>LEFT(F11,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="211" priority="104" operator="beginsWith" text="PA">
+      <formula>LEFT(F11,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="105" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="106" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="107" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="207" priority="108" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="109" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="110" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="204" priority="111" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="203" priority="112" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="113" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="114" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="200" priority="87" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",F15)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="199" priority="88" operator="beginsWith" text="PC">
+      <formula>LEFT(F15,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="198" priority="89" operator="beginsWith" text="PB">
+      <formula>LEFT(F15,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="197" priority="90" operator="beginsWith" text="PA">
+      <formula>LEFT(F15,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="91" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="92" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="93" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="94" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="95" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="96" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="97" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="98" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="188" priority="99" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="100" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="containsText" dxfId="186" priority="73" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",A16)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="185" priority="74" operator="beginsWith" text="PC">
+      <formula>LEFT(A16,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="184" priority="75" operator="beginsWith" text="PB">
+      <formula>LEFT(A16,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="183" priority="76" operator="beginsWith" text="PA">
+      <formula>LEFT(A16,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="77" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="78" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="79" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="179" priority="80" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="81" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="82" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="83" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="84" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="85" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="86" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",A16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="containsText" dxfId="158" priority="59" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",A8)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="157" priority="60" operator="beginsWith" text="PC">
+      <formula>LEFT(A8,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="156" priority="61" operator="beginsWith" text="PB">
+      <formula>LEFT(A8,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="155" priority="62" operator="beginsWith" text="PA">
+      <formula>LEFT(A8,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="63" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",A8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="64" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",A8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="65" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",A8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="66" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",A8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="67" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",A8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="68" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",A8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="69" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",A8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="70" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",A8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="71" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",A8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="72" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",A8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B21">
+    <cfRule type="containsText" dxfId="130" priority="44" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",B17)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="129" priority="45" operator="beginsWith" text="PC">
+      <formula>LEFT(B17,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="128" priority="46" operator="beginsWith" text="PB">
+      <formula>LEFT(B17,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="127" priority="47" operator="beginsWith" text="PA">
+      <formula>LEFT(B17,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="48" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="49" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="50" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="51" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="52" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="53" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="54" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="55" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="56" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="57" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",B17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B21">
+    <cfRule type="containsBlanks" dxfId="102" priority="58">
+      <formula>LEN(TRIM(B17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="containsText" dxfId="100" priority="30" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",A17)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="99" priority="31" operator="beginsWith" text="PC">
+      <formula>LEFT(A17,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="98" priority="32" operator="beginsWith" text="PB">
+      <formula>LEFT(A17,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="97" priority="33" operator="beginsWith" text="PA">
+      <formula>LEFT(A17,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="34" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="35" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="36" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="37" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="38" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="39" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="40" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="41" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="42" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="43" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",A17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B15">
+    <cfRule type="containsText" dxfId="72" priority="15" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",B11)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="71" priority="16" operator="beginsWith" text="PC">
+      <formula>LEFT(B11,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="70" priority="17" operator="beginsWith" text="PB">
+      <formula>LEFT(B11,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="69" priority="18" operator="beginsWith" text="PA">
+      <formula>LEFT(B11,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="19" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="20" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="22" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="23" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="24" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="25" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="26" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="27" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="28" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",B11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B15">
+    <cfRule type="containsBlanks" dxfId="44" priority="29">
+      <formula>LEN(TRIM(B11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",A11)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="41" priority="2" operator="beginsWith" text="PC">
+      <formula>LEFT(A11,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="40" priority="3" operator="beginsWith" text="PB">
+      <formula>LEFT(A11,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="39" priority="4" operator="beginsWith" text="PA">
+      <formula>LEFT(A11,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1417,24 +9251,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
